--- a/Agile/Product Backlog.xlsx
+++ b/Agile/Product Backlog.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\Cours\INGE_LOG\Agile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\Cours\INGE_LOG\INGE_LOG\Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -115,6 +114,12 @@
   </si>
   <si>
     <t>Voir le diagramme de séquence : Surveiller</t>
+  </si>
+  <si>
+    <t>Pour les bleus je suis pas sur</t>
+  </si>
+  <si>
+    <t>car c'est sensé être des User Stories</t>
   </si>
 </sst>
 </file>
@@ -500,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:K23"/>
+  <dimension ref="B5:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +756,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -771,7 +776,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>11</v>
       </c>
@@ -790,8 +795,11 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>12</v>
       </c>
@@ -810,8 +818,11 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>13</v>
       </c>
@@ -831,7 +842,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -843,7 +854,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -855,7 +866,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>

--- a/Agile/Product Backlog.xlsx
+++ b/Agile/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="20490" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -74,15 +74,6 @@
     <t>En temps que vendeur je peux signaler un acheteur qui n'a pas donné suite à mon enchère</t>
   </si>
   <si>
-    <t>Le système peut surveiller la fréquence d'offre des utilisateurs</t>
-  </si>
-  <si>
-    <t>Le système peut bannir un utilisateur</t>
-  </si>
-  <si>
-    <t>Le système peut envoyer un utilisateur à un acheteur ayant remporté une enchère et au vendeur du produit</t>
-  </si>
-  <si>
     <t>Voir le diagramme de séquence : Inscription</t>
   </si>
   <si>
@@ -110,16 +101,13 @@
     <t>Voir le diagramme de séquence : Rétablir</t>
   </si>
   <si>
-    <t>Voir les diagrammes de séquence</t>
-  </si>
-  <si>
     <t>Voir le diagramme de séquence : Surveiller</t>
   </si>
   <si>
-    <t>Pour les bleus je suis pas sur</t>
-  </si>
-  <si>
-    <t>car c'est sensé être des User Stories</t>
+    <t>Réaliser le module de surveillance, permettant de surveiller la fréquence d'enchère d'un utilisateur</t>
+  </si>
+  <si>
+    <t>Réaliser l'envoi utilisateur à un acheteur ayant remporté une enchère et au vendeur du produit à  la fin de celle-ci</t>
   </si>
 </sst>
 </file>
@@ -505,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:L23"/>
+  <dimension ref="B5:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L18" activeCellId="1" sqref="L19 L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -604,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -624,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -644,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -664,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -684,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2">
         <v>1.5</v>
@@ -704,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -724,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -744,7 +732,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>1.5</v>
@@ -756,7 +744,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -764,7 +752,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2">
         <v>1.5</v>
@@ -776,15 +764,15 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2">
         <v>1.5</v>
@@ -795,19 +783,16 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
@@ -818,31 +803,20 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>13</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -854,7 +828,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -865,18 +839,6 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
